--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4010578-65F4-485E-8531-2977602061C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D59399E-4E6B-44A4-976A-0035C8307590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{73F86F8F-3A3F-4E80-9A13-34584310EBBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CFDDC9C3-D20F-4DAC-A252-7B78866F0EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="g10.2" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Ano</t>
+  </si>
+  <si>
     <t>Brasil</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
   </si>
   <si>
     <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -391,27 +391,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5FE8ED-DAC2-4246-A9CE-237F1C105821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21322885-1DD6-4AA8-A223-FDD67A2E86E3}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,13 +521,13 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>0.2449464091524689</v>
+        <v>0.74652644359447518</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.48525102058076808</v>
+        <v>-1.4189382427712727</v>
       </c>
       <c r="D9" s="1">
-        <v>1.5270296491851409</v>
+        <v>-0.12419148437128325</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +535,13 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>-3.8236330910128902</v>
+        <v>-4.3024599759648456</v>
       </c>
       <c r="C10" s="1">
-        <v>-6.3343929564864005</v>
+        <v>-5.4472613016193216</v>
       </c>
       <c r="D10" s="1">
-        <v>-11.476729644567396</v>
+        <v>-10.013197113568694</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D59399E-4E6B-44A4-976A-0035C8307590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C1EC2-29AC-4C89-B26F-6359FD937DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CFDDC9C3-D20F-4DAC-A252-7B78866F0EF7}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21322885-1DD6-4AA8-A223-FDD67A2E86E3}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,6 +572,20 @@
         <v>8.1919858360453688</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-1.6546877877621546</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.6998210133484499</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12.22764074891356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>4.806036682112835</v>
+        <v>-3.385222265220278</v>
       </c>
       <c r="C2" t="n">
         <v>2.156256205412843</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.486697853501997</v>
+        <v>7.42831340688157</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>3.503834863143984</v>
+        <v>0.2463266247996643</v>
       </c>
       <c r="C3" t="n">
         <v>-0.1726945714101369</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.91467004489501</v>
+        <v>-1.012507379637351</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2457213476974696</v>
+        <v>5.610389028192864</v>
       </c>
       <c r="C4" t="n">
         <v>0.6596605493402352</v>
       </c>
       <c r="D4" t="n">
-        <v>1.022863952641506</v>
+        <v>6.264435618524278</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.312345764293291</v>
+        <v>6.184277783534609</v>
       </c>
       <c r="C5" t="n">
         <v>-6.900315951602332</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.89513846477554</v>
+        <v>9.7524654085972</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.824099304175501</v>
+        <v>-1.443142442752077</v>
       </c>
       <c r="C6" t="n">
         <v>-6.170286271349568</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.885873654217935</v>
+        <v>7.999624148887508</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>1.46427400235829</v>
+        <v>-0.2979794519829992</v>
       </c>
       <c r="C7" t="n">
         <v>-4.966187945630674</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.40708517453662</v>
+        <v>2.803836647713465</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2988700232403829</v>
+        <v>-0.9075249977125499</v>
       </c>
       <c r="C8" t="n">
         <v>-4.252420309235028</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.727365766825995</v>
+        <v>0.1160106934419369</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9158364423651699</v>
+        <v>4.648647622154889</v>
       </c>
       <c r="C9" t="n">
         <v>-1.186129424272009</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1158762645838585</v>
+        <v>11.24921368985714</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.442147823008025</v>
+        <v>-10.6527330118294</v>
       </c>
       <c r="C10" t="n">
         <v>-5.579276809219557</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.11172422415312</v>
+        <v>-5.923973454284292</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>11.92284148236991</v>
+        <v>-6.410813931887183</v>
       </c>
       <c r="C11" t="n">
         <v>8.973260773868752</v>
       </c>
       <c r="D11" t="n">
-        <v>6.297006444469222</v>
+        <v>-7.346538250575129</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>6.849951582249547</v>
+        <v>0.09808943910727397</v>
       </c>
       <c r="C12" t="n">
         <v>7.467478343392475</v>
       </c>
       <c r="D12" t="n">
-        <v>7.929048857821797</v>
+        <v>-10.82134834724389</v>
       </c>
     </row>
     <row r="13">
@@ -614,27 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.09799331801128019</v>
+        <v>-2.490452149452149</v>
       </c>
       <c r="C13" t="n">
         <v>2.922275403172314</v>
       </c>
       <c r="D13" t="n">
-        <v>12.13446059868686</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.554059786298302</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.3956967427893</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.316262258673519</v>
+        <v>-3.209816331112103</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.385222265220278</v>
+        <v>-3.383341250834726</v>
       </c>
       <c r="C2" t="n">
-        <v>2.156256205412843</v>
+        <v>2.155784801988059</v>
       </c>
       <c r="D2" t="n">
-        <v>7.42831340688157</v>
+        <v>7.433110380454799</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2463266247996643</v>
+        <v>0.2439808399159471</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1726945714101369</v>
+        <v>-0.1740913406866107</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.012507379637351</v>
+        <v>-1.008724857903942</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>5.610389028192864</v>
+        <v>5.606362531019382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6596605493402352</v>
+        <v>0.6579095658640677</v>
       </c>
       <c r="D4" t="n">
-        <v>6.264435618524278</v>
+        <v>6.266452669837808</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>6.184277783534609</v>
+        <v>6.187463753814892</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.900315951602332</v>
+        <v>-6.903561235429456</v>
       </c>
       <c r="D5" t="n">
-        <v>9.7524654085972</v>
+        <v>9.754254968344501</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.443142442752077</v>
+        <v>-1.451057335467054</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.170286271349568</v>
+        <v>-6.177742879580272</v>
       </c>
       <c r="D6" t="n">
-        <v>7.999624148887508</v>
+        <v>8.002056008584525</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2979794519829992</v>
+        <v>-0.2896224593916363</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.966187945630674</v>
+        <v>-4.969367067900111</v>
       </c>
       <c r="D7" t="n">
-        <v>2.803836647713465</v>
+        <v>2.803087220402856</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9075249977125499</v>
+        <v>-0.9081980491532082</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.252420309235028</v>
+        <v>-4.256032038651048</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1160106934419369</v>
+        <v>0.1156072649098894</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>4.648647622154889</v>
+        <v>4.642033376017518</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.186129424272009</v>
+        <v>-1.180271120538434</v>
       </c>
       <c r="D9" t="n">
-        <v>11.24921368985714</v>
+        <v>11.24620493149768</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.6527330118294</v>
+        <v>-10.64870586592827</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.579276809219557</v>
+        <v>-5.575599503798379</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.923973454284292</v>
+        <v>-5.924122471118087</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.410813931887183</v>
+        <v>-6.412425571460922</v>
       </c>
       <c r="C11" t="n">
-        <v>8.973260773868752</v>
+        <v>8.995566678924227</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.346538250575129</v>
+        <v>-7.347264789576724</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09808943910727397</v>
+        <v>0.08943577057456409</v>
       </c>
       <c r="C12" t="n">
-        <v>7.467478343392475</v>
+        <v>7.480578958599393</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.82134834724389</v>
+        <v>-10.81946663818691</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.490452149452149</v>
+        <v>-2.468191820892673</v>
       </c>
       <c r="C13" t="n">
-        <v>2.922275403172314</v>
+        <v>2.943460101589301</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.209816331112103</v>
+        <v>-3.206398799120913</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.383341250834726</v>
+        <v>-3.380387134729135</v>
       </c>
       <c r="C2" t="n">
-        <v>2.155784801988059</v>
+        <v>2.152106832695933</v>
       </c>
       <c r="D2" t="n">
-        <v>7.433110380454799</v>
+        <v>7.434863256980662</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2439808399159471</v>
+        <v>0.2458182668426012</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1740913406866107</v>
+        <v>-0.175034069307578</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.008724857903942</v>
+        <v>-1.006965064779253</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>5.606362531019382</v>
+        <v>5.628575150153137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6579095658640677</v>
+        <v>0.6539026922407265</v>
       </c>
       <c r="D4" t="n">
-        <v>6.266452669837808</v>
+        <v>6.267597251366408</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>6.187463753814892</v>
+        <v>6.17726467992108</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.903561235429456</v>
+        <v>-6.90125146503876</v>
       </c>
       <c r="D5" t="n">
-        <v>9.754254968344501</v>
+        <v>9.755157674477211</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.451057335467054</v>
+        <v>-1.454355621792969</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.177742879580272</v>
+        <v>-6.17799605785695</v>
       </c>
       <c r="D6" t="n">
-        <v>8.002056008584525</v>
+        <v>8.002872036043618</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2896224593916363</v>
+        <v>-0.2862285124544894</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.969367067900111</v>
+        <v>-4.971795880184382</v>
       </c>
       <c r="D7" t="n">
-        <v>2.803087220402856</v>
+        <v>2.79976609910868</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9081980491532082</v>
+        <v>-0.9025313378329569</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.256032038651048</v>
+        <v>-4.255046939480378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1156072649098894</v>
+        <v>0.1133182134140931</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>4.642033376017518</v>
+        <v>4.667723483238428</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.180271120538434</v>
+        <v>-1.176744080281222</v>
       </c>
       <c r="D9" t="n">
-        <v>11.24620493149768</v>
+        <v>11.23837728813852</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.64870586592827</v>
+        <v>-10.66418995593149</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.575599503798379</v>
+        <v>-5.569625683566737</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.924122471118087</v>
+        <v>-5.930111789747738</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.412425571460922</v>
+        <v>-6.409519563932187</v>
       </c>
       <c r="C11" t="n">
-        <v>8.995566678924227</v>
+        <v>8.992974645904539</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.347264789576724</v>
+        <v>-7.356937051210577</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08943577057456409</v>
+        <v>0.07754669076678322</v>
       </c>
       <c r="C12" t="n">
-        <v>7.480578958599393</v>
+        <v>7.485228308347747</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.81946663818691</v>
+        <v>-10.82673191893189</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.468191820892673</v>
+        <v>-2.471908895400521</v>
       </c>
       <c r="C13" t="n">
-        <v>2.943460101589301</v>
+        <v>2.942865220470381</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.206398799120913</v>
+        <v>-3.253364144377369</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.380387134729135</v>
+        <v>-3.379892373866011</v>
       </c>
       <c r="C2" t="n">
-        <v>2.152106832695933</v>
+        <v>2.163515753146239</v>
       </c>
       <c r="D2" t="n">
-        <v>7.434863256980662</v>
+        <v>7.435808045749526</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2458182668426012</v>
+        <v>0.2458231190647586</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.175034069307578</v>
+        <v>-0.1875259260663009</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.006965064779253</v>
+        <v>-1.007183601585049</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>5.628575150153137</v>
+        <v>5.627315197848137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6539026922407265</v>
+        <v>0.6384897485574692</v>
       </c>
       <c r="D4" t="n">
-        <v>6.267597251366408</v>
+        <v>6.267274865596151</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>6.17726467992108</v>
+        <v>6.179633245833416</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.90125146503876</v>
+        <v>-6.9249313127418</v>
       </c>
       <c r="D5" t="n">
-        <v>9.755157674477211</v>
+        <v>9.755188628559864</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.454355621792969</v>
+        <v>-1.463003871040247</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.17799605785695</v>
+        <v>-6.168894446832496</v>
       </c>
       <c r="D6" t="n">
-        <v>8.002872036043618</v>
+        <v>8.007965298984665</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2862285124544894</v>
+        <v>-0.281383846374228</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.971795880184382</v>
+        <v>-4.930903865008629</v>
       </c>
       <c r="D7" t="n">
-        <v>2.79976609910868</v>
+        <v>2.808051911452081</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9025313378329569</v>
+        <v>-0.9053869787370439</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.255046939480378</v>
+        <v>-4.25472390457905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1133182134140931</v>
+        <v>0.1299980927116806</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>4.667723483238428</v>
+        <v>4.664108877870277</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.176744080281222</v>
+        <v>-1.162146239825368</v>
       </c>
       <c r="D9" t="n">
-        <v>11.23837728813852</v>
+        <v>11.26357451946019</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.66418995593149</v>
+        <v>-10.66327623651624</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.569625683566737</v>
+        <v>-5.589185233586303</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.930111789747738</v>
+        <v>-5.895858621317451</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.409519563932187</v>
+        <v>-6.406677988739851</v>
       </c>
       <c r="C11" t="n">
-        <v>8.992974645904539</v>
+        <v>9.02352552360497</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.356937051210577</v>
+        <v>-7.330421336695093</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07754669076678322</v>
+        <v>0.07376296021432971</v>
       </c>
       <c r="C12" t="n">
-        <v>7.485228308347747</v>
+        <v>7.472375402118336</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.82673191893189</v>
+        <v>-10.80355425882852</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.471908895400521</v>
+        <v>-2.493306323704991</v>
       </c>
       <c r="C13" t="n">
-        <v>2.942865220470381</v>
+        <v>2.988660742308724</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.253364144377369</v>
+        <v>-3.240237928329937</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.2.xlsx
+++ b/Data/g10.2.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.379892373866011</v>
+        <v>-3.377448218355161</v>
       </c>
       <c r="C2" t="n">
-        <v>2.163515753146239</v>
+        <v>2.15496247269007</v>
       </c>
       <c r="D2" t="n">
-        <v>7.435808045749526</v>
+        <v>7.434495881238234</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2458231190647586</v>
+        <v>0.2448820992536849</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1875259260663009</v>
+        <v>-0.1721910504140167</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.007183601585049</v>
+        <v>-1.008236814482644</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>5.627315197848137</v>
+        <v>5.624925926329238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6384897485574692</v>
+        <v>0.6459332894185987</v>
       </c>
       <c r="D4" t="n">
-        <v>6.267274865596151</v>
+        <v>6.267294698459325</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>6.179633245833416</v>
+        <v>6.16826137189288</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.9249313127418</v>
+        <v>-6.935153294182605</v>
       </c>
       <c r="D5" t="n">
-        <v>9.755188628559864</v>
+        <v>9.755477202390939</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.463003871040247</v>
+        <v>-1.494625744833378</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.168894446832496</v>
+        <v>-6.157851153201799</v>
       </c>
       <c r="D6" t="n">
-        <v>8.007965298984665</v>
+        <v>8.009006717074318</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.281383846374228</v>
+        <v>-0.2554344193826941</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.930903865008629</v>
+        <v>-4.932397146504464</v>
       </c>
       <c r="D7" t="n">
-        <v>2.808051911452081</v>
+        <v>2.809173804671983</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9053869787370439</v>
+        <v>-0.8961894651313584</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.25472390457905</v>
+        <v>-4.264270422584227</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1299980927116806</v>
+        <v>0.1319837197746532</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>4.664108877870277</v>
+        <v>4.683070112298715</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.162146239825368</v>
+        <v>-1.149109367878443</v>
       </c>
       <c r="D9" t="n">
-        <v>11.26357451946019</v>
+        <v>11.26013612946959</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.66327623651624</v>
+        <v>-10.69158489251918</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.589185233586303</v>
+        <v>-5.600889391489416</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.895858621317451</v>
+        <v>-5.900781225340602</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.406677988739851</v>
+        <v>-6.373529693431146</v>
       </c>
       <c r="C11" t="n">
-        <v>9.02352552360497</v>
+        <v>9.024371965595002</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.330421336695093</v>
+        <v>-7.350727472305019</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07376296021432971</v>
+        <v>0.04395139504043133</v>
       </c>
       <c r="C12" t="n">
-        <v>7.472375402118336</v>
+        <v>7.481601158193651</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.80355425882852</v>
+        <v>-10.82795411725803</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.493306323704991</v>
+        <v>-2.445450002465022</v>
       </c>
       <c r="C13" t="n">
-        <v>2.988660742308724</v>
+        <v>2.990192558263849</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.240237928329937</v>
+        <v>-3.269703462328233</v>
       </c>
     </row>
   </sheetData>
